--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
   <si>
     <t>key</t>
   </si>
@@ -33,22 +33,13 @@
     <t>Elections 2016</t>
   </si>
   <si>
-    <t>iowa_dem_disclaimer</t>
+    <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>Democratic vote totals are "state delegate equivalents" -- an estimated number of delegates that will be sent to county and state conventions to formally select the delegates who will represent Iowa and the winning candidates at the national convention. Democrats do not immediately report the raw vote and never report what share of the raw vote each candidate&amp;nbsp;won.</t>
+    <t>Test GOP</t>
   </si>
   <si>
-    <t>nev_dem_disclaimer</t>
-  </si>
-  <si>
-    <t>Democratic vote totals are numbers of delegates who will attend county party conventions. The party does not report the raw&amp;nbsp;vote.</t>
-  </si>
-  <si>
-    <t>nev_gop_disclaimer</t>
-  </si>
-  <si>
-    <t>Polls close in South Carolina at 7 p.m. EST.</t>
+    <t>results_dem_footnote</t>
   </si>
   <si>
     <t>delegates_dem_footnote</t>
@@ -608,31 +599,32 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -643,42 +635,31 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -694,126 +675,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -830,117 +811,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -964,13 +945,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -998,86 +979,86 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1125,10 +1106,10 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1151,10 +1132,10 @@
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1177,10 +1158,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1203,10 +1184,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1229,10 +1210,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1255,7 +1236,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
@@ -1281,10 +1262,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1307,10 +1288,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1333,10 +1314,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1359,10 +1340,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1385,7 +1366,7 @@
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1409,7 +1390,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1433,7 +1414,7 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1457,7 +1438,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1481,7 +1462,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1505,7 +1486,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1529,10 +1510,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1555,10 +1536,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1581,10 +1562,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1607,10 +1588,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -3510,42 +3491,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -7546,58 +7527,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7626,50 +7607,50 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -11666,34 +11647,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -36,7 +36,7 @@
     <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>Test GOP</t>
+    <t>Test GOP with some "quotes" and ¢£™¢</t>
   </si>
   <si>
     <t>results_dem_footnote</t>

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="120">
   <si>
     <t>key</t>
   </si>
@@ -36,10 +36,13 @@
     <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>Test GOP with some "quotes" and ¢£™¢</t>
+    <t>Colorado and Wyoming Republicans also begin their nomination processes today, but no results are&amp;nbsp;expected.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
+  </si>
+  <si>
+    <t>American Samoa and Democrats Abroad also vote today. AP is not providing live&amp;nbsp;results.</t>
   </si>
   <si>
     <t>delegates_dem_footnote</t>
@@ -60,13 +63,10 @@
     <t>after</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>stage_state</t>
   </si>
   <si>
-    <t>during</t>
+    <t>before</t>
   </si>
   <si>
     <t>dev_state</t>
@@ -75,7 +75,7 @@
     <t>live_audio</t>
   </si>
   <si>
-    <t>inactive</t>
+    <t>live</t>
   </si>
   <si>
     <t>name</t>
@@ -99,27 +99,6 @@
     <t>podcast</t>
   </si>
   <si>
-    <t>What's Happening</t>
-  </si>
-  <si>
-    <t>whats_happening</t>
-  </si>
-  <si>
-    <t>Democratic Results</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
-    <t>dem</t>
-  </si>
-  <si>
-    <t>Republican Results</t>
-  </si>
-  <si>
-    <t>gop</t>
-  </si>
-  <si>
     <t>Get Caught Up</t>
   </si>
   <si>
@@ -141,7 +120,13 @@
     <t>delegates</t>
   </si>
   <si>
+    <t>gop</t>
+  </si>
+  <si>
     <t>Democratic Delegates</t>
+  </si>
+  <si>
+    <t>dem</t>
   </si>
   <si>
     <t>Newsletter</t>
@@ -157,6 +142,18 @@
   </si>
   <si>
     <t>Live Audio</t>
+  </si>
+  <si>
+    <t>What's Happening</t>
+  </si>
+  <si>
+    <t>whats_happening</t>
+  </si>
+  <si>
+    <t>Democratic Results</t>
+  </si>
+  <si>
+    <t>results</t>
   </si>
   <si>
     <t>What Happened</t>
@@ -375,12 +372,6 @@
     <t>states</t>
   </si>
   <si>
-    <t>Saturday, Feb. 27</t>
-  </si>
-  <si>
-    <t>South Carolina Democratic primary</t>
-  </si>
-  <si>
     <t>Tuesday, March 1</t>
   </si>
   <si>
@@ -599,34 +590,34 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -703,7 +694,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -727,27 +718,29 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>37</v>
@@ -758,43 +751,10 @@
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -839,89 +799,87 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
+      <c r="A4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -988,77 +946,77 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1106,10 +1064,10 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1132,10 +1090,10 @@
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1158,10 +1116,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1184,10 +1142,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1210,10 +1168,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1236,7 +1194,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
@@ -1262,10 +1220,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1288,10 +1246,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1314,10 +1272,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1340,10 +1298,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1366,7 +1324,7 @@
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1390,7 +1348,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1414,7 +1372,7 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1438,7 +1396,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1462,7 +1420,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1486,7 +1444,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1510,10 +1468,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1536,10 +1494,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1562,10 +1520,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1588,10 +1546,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -3491,42 +3449,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -7527,58 +7485,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7607,50 +7565,50 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8">
@@ -11647,34 +11605,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>key</t>
   </si>
@@ -37,22 +37,22 @@
     <t>prod_state</t>
   </si>
   <si>
-    <t>before</t>
+    <t>after</t>
   </si>
   <si>
     <t>stage_state</t>
   </si>
   <si>
-    <t>dev_state</t>
+    <t>during</t>
   </si>
   <si>
-    <t>during</t>
+    <t>dev_state</t>
   </si>
   <si>
     <t>live_audio</t>
   </si>
   <si>
-    <t>live</t>
+    <t>inactive</t>
   </si>
   <si>
     <t>results_gop_footnote</t>
@@ -76,7 +76,7 @@
     <t>delegates_gop_footnote</t>
   </si>
   <si>
-    <t>Jeb Bush, Carly Fiorina and Rand Paul suspended their campaigns.</t>
+    <t>Jeb Bush, Carly Fiorina, Mike Huckabee and Rand Paul suspended their campaigns.</t>
   </si>
   <si>
     <t>donate_hed</t>
@@ -391,16 +391,22 @@
     <t>states</t>
   </si>
   <si>
-    <t>Tuesday, March 1</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;Super Tuesday&lt;/strong&gt;: Alabama, Alaska (R), Arkansas, Colorado, Georgia, Massachusetts, Minnesota, Oklahoma, Tennessee, Texas, Vermont, Virginia, Wyoming (R), American Samoa (D), Democrats Abroad</t>
-  </si>
-  <si>
     <t>Saturday, March 5</t>
   </si>
   <si>
     <t>Kansas, Kentucky (R), Louisiana, Maine (R), Nebraska (D)</t>
+  </si>
+  <si>
+    <t>Sunday, March 6</t>
+  </si>
+  <si>
+    <t>Maine (D), Puerto Rico (R)</t>
+  </si>
+  <si>
+    <t>Tuesday, March 8</t>
+  </si>
+  <si>
+    <t>Hawaii (R), Idaho (R), Michigan, Mississippi</t>
   </si>
 </sst>
 </file>
@@ -631,15 +637,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -737,11 +743,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -4723,10 +4737,6 @@
     <row r="999">
       <c r="A999" s="22"/>
       <c r="B999" s="22"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="22"/>
-      <c r="B1000" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5042,67 +5052,78 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>key</t>
   </si>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5043,87 +5043,96 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -13,6 +13,9 @@
     <sheet state="visible" name="donate_buttons" sheetId="8" r:id="rId10"/>
     <sheet state="visible" name="feedback" sheetId="9" r:id="rId11"/>
     <sheet state="visible" name="calendar" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="pr_labels" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="pr_results" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="pr_working" sheetId="13" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="146">
   <si>
     <t>key</t>
   </si>
@@ -37,16 +40,16 @@
     <t>prod_state</t>
   </si>
   <si>
-    <t>after</t>
+    <t>before</t>
   </si>
   <si>
     <t>stage_state</t>
   </si>
   <si>
-    <t>during</t>
+    <t>dev_state</t>
   </si>
   <si>
-    <t>dev_state</t>
+    <t>during</t>
   </si>
   <si>
     <t>live_audio</t>
@@ -58,13 +61,10 @@
     <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>Colorado and Wyoming Republicans also begin their nomination processes today, but no results are&amp;nbsp;expected.</t>
+    <t>Puerto Rico also votes today. AP is not providing live&amp;nbsp;results.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
-  </si>
-  <si>
-    <t>American Samoa and Democrats Abroad also vote today. AP is not providing live&amp;nbsp;results.</t>
   </si>
   <si>
     <t>delegates_dem_footnote</t>
@@ -76,7 +76,7 @@
     <t>delegates_gop_footnote</t>
   </si>
   <si>
-    <t>Jeb Bush, Carly Fiorina, Mike Huckabee and Rand Paul suspended their campaigns.</t>
+    <t>Jeb Bush, Ben Carson, Carly Fiorina, Mike Huckabee and Rand Paul suspended their campaigns.</t>
   </si>
   <si>
     <t>donate_hed</t>
@@ -154,28 +154,25 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>Live Audio</t>
-  </si>
-  <si>
-    <t>What's Happening</t>
-  </si>
-  <si>
-    <t>whats_happening</t>
-  </si>
-  <si>
     <t>Republican Results</t>
   </si>
   <si>
-    <t>results</t>
+    <t>results-pr-gop</t>
   </si>
   <si>
     <t>Democratic Results</t>
+  </si>
+  <si>
+    <t>results_single</t>
   </si>
   <si>
     <t>What Happened</t>
   </si>
   <si>
     <t>what_happened</t>
+  </si>
+  <si>
+    <t>results</t>
   </si>
   <si>
     <t>meta_description</t>
@@ -391,12 +388,6 @@
     <t>states</t>
   </si>
   <si>
-    <t>Saturday, March 5</t>
-  </si>
-  <si>
-    <t>Kansas, Kentucky (R), Louisiana, Maine (R), Nebraska (D)</t>
-  </si>
-  <si>
     <t>Sunday, March 6</t>
   </si>
   <si>
@@ -407,6 +398,72 @@
   </si>
   <si>
     <t>Hawaii (R), Idaho (R), Michigan, Mississippi</t>
+  </si>
+  <si>
+    <t>Saturday, March 12</t>
+  </si>
+  <si>
+    <t>District of Columbia (R), Wyoming county conventions (R), Northern Mariana Islands (D)</t>
+  </si>
+  <si>
+    <t>Puerto Rico Republican Primary</t>
+  </si>
+  <si>
+    <t>precinctsreporting</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>precinctstotal</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>precinctsreportingpct</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>As of March 6, 2016, 4:29 &lt;span class="ap-period"&gt;p.m.&lt;/span&gt; EST</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://presidenciales16.ceepur.org/"&gt;Republican Party of Puerto Rico&lt;/a&gt;, AP</t>
+  </si>
+  <si>
+    <t>total_votecount</t>
+  </si>
+  <si>
+    <t>votecount</t>
+  </si>
+  <si>
+    <t>votepct</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>Marco Rubio</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>John Kasich</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -475,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -545,6 +602,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -558,6 +618,18 @@
 </file>
 
 <file path=xl/drawings/worksheetdrawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -637,15 +709,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -660,7 +732,8 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -668,40 +741,38 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -728,34 +799,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
+    <row r="3">
+      <c r="A3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -4733,2810 +4804,28 @@
     <row r="998">
       <c r="A998" s="22"/>
       <c r="B998" s="22"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="22"/>
-      <c r="B999" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="31.29"/>
-    <col customWidth="1" min="2" max="2" width="22.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.57"/>
-    <col customWidth="1" min="2" max="2" width="84.0"/>
-    <col customWidth="1" min="3" max="20" width="17.29"/>
+    <col customWidth="1" min="1" max="1" width="20.57"/>
+    <col customWidth="1" min="2" max="2" width="38.14"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="21.71"/>
-    <col customWidth="1" min="2" max="2" width="68.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="33.0" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
@@ -7564,44 +4853,3083 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="23" t="str">
+        <f>sum(pr_results!B3:B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="1.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="31.29"/>
+    <col customWidth="1" min="2" max="2" width="22.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="36.57"/>
+    <col customWidth="1" min="2" max="2" width="84.0"/>
+    <col customWidth="1" min="3" max="20" width="17.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" ht="30.0" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" ht="30.0" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" ht="30.0" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" ht="30.0" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" ht="30.0" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" ht="30.0" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" ht="30.0" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" ht="30.0" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" ht="30.0" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" ht="30.0" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.71"/>
+    <col customWidth="1" min="2" max="2" width="68.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33.0" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+    </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -11602,58 +11930,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -11676,7 +12004,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -11705,27 +12033,27 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -11754,50 +12082,50 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="145">
   <si>
     <t>key</t>
   </si>
@@ -46,10 +46,10 @@
     <t>stage_state</t>
   </si>
   <si>
-    <t>dev_state</t>
+    <t>during</t>
   </si>
   <si>
-    <t>during</t>
+    <t>dev_state</t>
   </si>
   <si>
     <t>live_audio</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>results_gop_footnote</t>
-  </si>
-  <si>
-    <t>Puerto Rico also votes today. AP is not providing live&amp;nbsp;results.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
@@ -388,12 +385,6 @@
     <t>states</t>
   </si>
   <si>
-    <t>Sunday, March 6</t>
-  </si>
-  <si>
-    <t>Maine (D), Puerto Rico (R)</t>
-  </si>
-  <si>
     <t>Tuesday, March 8</t>
   </si>
   <si>
@@ -404,6 +395,12 @@
   </si>
   <si>
     <t>District of Columbia (R), Wyoming county conventions (R), Northern Mariana Islands (D)</t>
+  </si>
+  <si>
+    <t>Tuesday, March 15</t>
+  </si>
+  <si>
+    <t>Florida, Illinois, Missouri, North Carolina, Ohio, Northern Mariana Islands (R)</t>
   </si>
   <si>
     <t>Puerto Rico Republican Primary</t>
@@ -709,15 +706,15 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -733,46 +730,44 @@
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -799,34 +794,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="20" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -4800,10 +4795,6 @@
     <row r="997">
       <c r="A997" s="22"/>
       <c r="B997" s="22"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4855,55 +4846,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="23" t="str">
         <f>sum(pr_results!B3:B6)</f>
@@ -4924,74 +4915,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5008,71 +4999,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5089,95 +5080,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5194,117 +5185,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="1.5" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5328,13 +5319,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5362,106 +5353,106 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5509,10 +5500,10 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5535,10 +5526,10 @@
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5561,10 +5552,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -5587,10 +5578,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5613,10 +5604,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -5639,7 +5630,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -5665,10 +5656,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -5691,10 +5682,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5717,10 +5708,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5743,10 +5734,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5769,7 +5760,7 @@
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5793,7 +5784,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5817,7 +5808,7 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5841,7 +5832,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5865,7 +5856,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5889,7 +5880,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5913,10 +5904,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -5939,10 +5930,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5965,10 +5956,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -5991,10 +5982,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -7894,42 +7885,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -11930,58 +11921,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -12004,7 +11995,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -12033,27 +12024,27 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12082,50 +12073,50 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
   <si>
     <t>key</t>
   </si>
@@ -40,7 +40,7 @@
     <t>prod_state</t>
   </si>
   <si>
-    <t>before</t>
+    <t>during</t>
   </si>
   <si>
     <t>stage_state</t>
@@ -49,7 +49,7 @@
     <t>dev_state</t>
   </si>
   <si>
-    <t>during</t>
+    <t>after</t>
   </si>
   <si>
     <t>live_audio</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>results_gop_footnote</t>
-  </si>
-  <si>
-    <t>Puerto Rico also votes today. AP is not providing live&amp;nbsp;results.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
@@ -172,7 +169,7 @@
     <t>what_happened</t>
   </si>
   <si>
-    <t>results</t>
+    <t>results_pr</t>
   </si>
   <si>
     <t>meta_description</t>
@@ -388,12 +385,6 @@
     <t>states</t>
   </si>
   <si>
-    <t>Sunday, March 6</t>
-  </si>
-  <si>
-    <t>Maine (D), Puerto Rico (R)</t>
-  </si>
-  <si>
     <t>Tuesday, March 8</t>
   </si>
   <si>
@@ -406,13 +397,19 @@
     <t>District of Columbia (R), Wyoming county conventions (R), Northern Mariana Islands (D)</t>
   </si>
   <si>
-    <t>Puerto Rico Republican Primary</t>
+    <t>Tuesday, March 15</t>
+  </si>
+  <si>
+    <t>Florida, Illinois, Missouri, North Carolina, Ohio, Northern Mariana Islands (R)</t>
+  </si>
+  <si>
+    <t>Puerto Rico Republican&amp;nbsp;Primary</t>
   </si>
   <si>
     <t>precinctsreporting</t>
   </si>
   <si>
-    <t>0</t>
+    <t>130</t>
   </si>
   <si>
     <t>precinctstotal</t>
@@ -424,10 +421,13 @@
     <t>precinctsreportingpct</t>
   </si>
   <si>
+    <t>59.1</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
-    <t>As of March 6, 2016, 4:29 &lt;span class="ap-period"&gt;p.m.&lt;/span&gt; EST</t>
+    <t>As of March 6, 2016, 5:18 &lt;span class="ap-period"&gt;p.m.&lt;/span&gt; EST</t>
   </si>
   <si>
     <t>source</t>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>total_votecount</t>
+  </si>
+  <si>
+    <t>20,412</t>
   </si>
   <si>
     <t>votecount</t>
@@ -451,26 +454,113 @@
     <t>Marco Rubio</t>
   </si>
   <si>
+    <t>14,381</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>2,724</t>
+  </si>
+  <si>
+    <t>13.4</t>
   </si>
   <si>
     <t>Ted Cruz</t>
   </si>
   <si>
+    <t>1,756</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
     <t>John Kasich</t>
   </si>
   <si>
-    <t>Donald Trump</t>
+    <t>250</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>1,301</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Candidato / Candidate</t>
+  </si>
+  <si>
+    <t>Votos / Votes</t>
+  </si>
+  <si>
+    <t>Porciento / Vote %</t>
+  </si>
+  <si>
+    <t>Delegados / Delegates</t>
+  </si>
+  <si>
+    <t>MARCO RUBIO</t>
+  </si>
+  <si>
+    <t>DONALD TRUMP</t>
+  </si>
+  <si>
+    <t>TED CRUZ</t>
+  </si>
+  <si>
+    <t>JOHN R. KASICH</t>
+  </si>
+  <si>
+    <t>CARLY FIORINA</t>
+  </si>
+  <si>
+    <t>JEB BUSH</t>
+  </si>
+  <si>
+    <t>BEN CARSON</t>
+  </si>
+  <si>
+    <t>MIKE HUCKABEE</t>
+  </si>
+  <si>
+    <t>RAND PAUL</t>
+  </si>
+  <si>
+    <t>RICK SANTORUM</t>
+  </si>
+  <si>
+    <t>JAMES GILMORE</t>
+  </si>
+  <si>
+    <t>CHRIS CHRISTIE</t>
+  </si>
+  <si>
+    <t>*Otros</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -506,8 +596,19 @@
     <font>
       <sz val="12.0"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +619,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -532,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -603,6 +710,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,46 +891,44 @@
         <v>11</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -799,34 +955,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="20" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>120</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5">
@@ -4800,10 +4956,6 @@
     <row r="997">
       <c r="A997" s="22"/>
       <c r="B997" s="22"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="22"/>
-      <c r="B998" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4855,34 +5007,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -4905,9 +5057,8 @@
       <c r="A8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="23" t="str">
-        <f>sum(pr_results!B3:B6)</f>
-        <v>0</v>
+      <c r="B8" s="23" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4924,75 +5075,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
+      <c r="A2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
+      <c r="A3" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
+      <c r="A4" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D4" s="23"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>128</v>
+      <c r="A5" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>152</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>128</v>
+      <c r="A6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="D6" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5008,72 +5163,4300 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="B2" s="30">
+        <v>14381.0</v>
+      </c>
+      <c r="C2" s="31">
+        <v>70.45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="34">
+        <v>14381.0</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.7045</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>145</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2724.0</v>
+      </c>
+      <c r="C3" s="31">
+        <v>13.35</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="34">
+        <v>2724.0</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.1335</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1756.0</v>
+      </c>
+      <c r="C4" s="31">
+        <v>8.6</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1756.0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0.086</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>151</v>
+      </c>
+      <c r="B5" s="30">
+        <v>250.0</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1.22</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="34">
+        <v>250.0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.0122</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f>sum(H6:H14)</f>
+        <v>1,301</v>
+      </c>
+      <c r="C6" s="37" t="str">
+        <f>(B6/B7) * 100</f>
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="34">
+        <v>173.0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.0085</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="38" t="str">
+        <f t="shared" ref="B7:C7" si="1">sum(B2:B6)</f>
+        <v>20,412</v>
+      </c>
+      <c r="C7" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v>100.0</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="34">
+        <v>138.0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.0068</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="38"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="34">
+        <v>73.0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>0.0036</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="38"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="34">
+        <v>26.0</v>
+      </c>
+      <c r="I9" s="35">
+        <v>0.0013</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="38"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="34">
+        <v>19.0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>9.0E-4</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="34">
+        <v>19.0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>9.0E-4</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="34">
+        <v>9.0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>4.0E-4</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="34">
+        <v>5.0</v>
+      </c>
+      <c r="I13" s="35">
+        <v>2.0E-4</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="34">
+        <v>839.0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>4.0E-4</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="38"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="38"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="38"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="38"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="38"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="38"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="38"/>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="38"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="38"/>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="38"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="38"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="38"/>
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="38"/>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="38"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="38"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="38"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="38"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="38"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="38"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="38"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="38"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="38"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="38"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="38"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="38"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="38"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="38"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="38"/>
+      <c r="H43" s="40"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="38"/>
+      <c r="H44" s="40"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="38"/>
+      <c r="H45" s="40"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="38"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="38"/>
+      <c r="H47" s="40"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="38"/>
+      <c r="H48" s="40"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="38"/>
+      <c r="H49" s="40"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="38"/>
+      <c r="H50" s="40"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="38"/>
+      <c r="H51" s="40"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="38"/>
+      <c r="H52" s="40"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="38"/>
+      <c r="H53" s="40"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="38"/>
+      <c r="H54" s="40"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="38"/>
+      <c r="H55" s="40"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="38"/>
+      <c r="H56" s="40"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="38"/>
+      <c r="H57" s="40"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="38"/>
+      <c r="H58" s="40"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="38"/>
+      <c r="H59" s="40"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="38"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="38"/>
+      <c r="H61" s="40"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="38"/>
+      <c r="H62" s="40"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="38"/>
+      <c r="H63" s="40"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="38"/>
+      <c r="H64" s="40"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="38"/>
+      <c r="H65" s="40"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="38"/>
+      <c r="H66" s="40"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="38"/>
+      <c r="H67" s="40"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="38"/>
+      <c r="H68" s="40"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="38"/>
+      <c r="H69" s="40"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="38"/>
+      <c r="H70" s="40"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="38"/>
+      <c r="H71" s="40"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="38"/>
+      <c r="H72" s="40"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="38"/>
+      <c r="H73" s="40"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="38"/>
+      <c r="H74" s="40"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="38"/>
+      <c r="H75" s="40"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="38"/>
+      <c r="H76" s="40"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="38"/>
+      <c r="H77" s="40"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="38"/>
+      <c r="H78" s="40"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="38"/>
+      <c r="H79" s="40"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="38"/>
+      <c r="H80" s="40"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="38"/>
+      <c r="H81" s="40"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="38"/>
+      <c r="H82" s="40"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="38"/>
+      <c r="H83" s="40"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="38"/>
+      <c r="H84" s="40"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="38"/>
+      <c r="H85" s="40"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="38"/>
+      <c r="H86" s="40"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="38"/>
+      <c r="H87" s="40"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="38"/>
+      <c r="H88" s="40"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="38"/>
+      <c r="H89" s="40"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="38"/>
+      <c r="H90" s="40"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="38"/>
+      <c r="H91" s="40"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="38"/>
+      <c r="H92" s="40"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="38"/>
+      <c r="H93" s="40"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="38"/>
+      <c r="H94" s="40"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="38"/>
+      <c r="H95" s="40"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="38"/>
+      <c r="H96" s="40"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="38"/>
+      <c r="H97" s="40"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="38"/>
+      <c r="H98" s="40"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="38"/>
+      <c r="H99" s="40"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="38"/>
+      <c r="H100" s="40"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="38"/>
+      <c r="H101" s="40"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="38"/>
+      <c r="H102" s="40"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="38"/>
+      <c r="H103" s="40"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="38"/>
+      <c r="H104" s="40"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="38"/>
+      <c r="H105" s="40"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="38"/>
+      <c r="H106" s="40"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="38"/>
+      <c r="H107" s="40"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="38"/>
+      <c r="H108" s="40"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="38"/>
+      <c r="H109" s="40"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="38"/>
+      <c r="H110" s="40"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="38"/>
+      <c r="H111" s="40"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="38"/>
+      <c r="H112" s="40"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="38"/>
+      <c r="H113" s="40"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="38"/>
+      <c r="H114" s="40"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="38"/>
+      <c r="H115" s="40"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="38"/>
+      <c r="H116" s="40"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="38"/>
+      <c r="H117" s="40"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="38"/>
+      <c r="H118" s="40"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="38"/>
+      <c r="H119" s="40"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="38"/>
+      <c r="H120" s="40"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="38"/>
+      <c r="H121" s="40"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="38"/>
+      <c r="H122" s="40"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="38"/>
+      <c r="H123" s="40"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="38"/>
+      <c r="H124" s="40"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="38"/>
+      <c r="H125" s="40"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="38"/>
+      <c r="H126" s="40"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="38"/>
+      <c r="H127" s="40"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="38"/>
+      <c r="H128" s="40"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="38"/>
+      <c r="H129" s="40"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="38"/>
+      <c r="H130" s="40"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="38"/>
+      <c r="H131" s="40"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="38"/>
+      <c r="H132" s="40"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="38"/>
+      <c r="H133" s="40"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="38"/>
+      <c r="H134" s="40"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="38"/>
+      <c r="H135" s="40"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="38"/>
+      <c r="H136" s="40"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="38"/>
+      <c r="H137" s="40"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="38"/>
+      <c r="H138" s="40"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="38"/>
+      <c r="H139" s="40"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="38"/>
+      <c r="H140" s="40"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="38"/>
+      <c r="H141" s="40"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="38"/>
+      <c r="H142" s="40"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="38"/>
+      <c r="H143" s="40"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="38"/>
+      <c r="H144" s="40"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="38"/>
+      <c r="H145" s="40"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="38"/>
+      <c r="H146" s="40"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="38"/>
+      <c r="H147" s="40"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="38"/>
+      <c r="H148" s="40"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="38"/>
+      <c r="H149" s="40"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="38"/>
+      <c r="H150" s="40"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="38"/>
+      <c r="H151" s="40"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="38"/>
+      <c r="H152" s="40"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="38"/>
+      <c r="H153" s="40"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="38"/>
+      <c r="H154" s="40"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="38"/>
+      <c r="H155" s="40"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="38"/>
+      <c r="H156" s="40"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="38"/>
+      <c r="H157" s="40"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="38"/>
+      <c r="H158" s="40"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="38"/>
+      <c r="H159" s="40"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="38"/>
+      <c r="H160" s="40"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="38"/>
+      <c r="H161" s="40"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="38"/>
+      <c r="H162" s="40"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="38"/>
+      <c r="H163" s="40"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="38"/>
+      <c r="H164" s="40"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="38"/>
+      <c r="H165" s="40"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="38"/>
+      <c r="H166" s="40"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="38"/>
+      <c r="H167" s="40"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="38"/>
+      <c r="H168" s="40"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="38"/>
+      <c r="H169" s="40"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="38"/>
+      <c r="H170" s="40"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="38"/>
+      <c r="H171" s="40"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="38"/>
+      <c r="H172" s="40"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="38"/>
+      <c r="H173" s="40"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="38"/>
+      <c r="H174" s="40"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="38"/>
+      <c r="H175" s="40"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="38"/>
+      <c r="H176" s="40"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="38"/>
+      <c r="H177" s="40"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="38"/>
+      <c r="H178" s="40"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="38"/>
+      <c r="H179" s="40"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="38"/>
+      <c r="H180" s="40"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="38"/>
+      <c r="H181" s="40"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="38"/>
+      <c r="H182" s="40"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="38"/>
+      <c r="H183" s="40"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="38"/>
+      <c r="H184" s="40"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="38"/>
+      <c r="H185" s="40"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="38"/>
+      <c r="H186" s="40"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="38"/>
+      <c r="H187" s="40"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="38"/>
+      <c r="H188" s="40"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="38"/>
+      <c r="H189" s="40"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="38"/>
+      <c r="H190" s="40"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="38"/>
+      <c r="H191" s="40"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="38"/>
+      <c r="H192" s="40"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="38"/>
+      <c r="H193" s="40"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="38"/>
+      <c r="H194" s="40"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="38"/>
+      <c r="H195" s="40"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="38"/>
+      <c r="H196" s="40"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="38"/>
+      <c r="H197" s="40"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="38"/>
+      <c r="H198" s="40"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="38"/>
+      <c r="H199" s="40"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="38"/>
+      <c r="H200" s="40"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="38"/>
+      <c r="H201" s="40"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="38"/>
+      <c r="H202" s="40"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="38"/>
+      <c r="H203" s="40"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="38"/>
+      <c r="H204" s="40"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="38"/>
+      <c r="H205" s="40"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="38"/>
+      <c r="H206" s="40"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="38"/>
+      <c r="H207" s="40"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="38"/>
+      <c r="H208" s="40"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="38"/>
+      <c r="H209" s="40"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="38"/>
+      <c r="H210" s="40"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="38"/>
+      <c r="H211" s="40"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="38"/>
+      <c r="H212" s="40"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="38"/>
+      <c r="H213" s="40"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="38"/>
+      <c r="H214" s="40"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="38"/>
+      <c r="H215" s="40"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="38"/>
+      <c r="H216" s="40"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="38"/>
+      <c r="H217" s="40"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="38"/>
+      <c r="H218" s="40"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="38"/>
+      <c r="H219" s="40"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="38"/>
+      <c r="H220" s="40"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="38"/>
+      <c r="H221" s="40"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="38"/>
+      <c r="H222" s="40"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="38"/>
+      <c r="H223" s="40"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="38"/>
+      <c r="H224" s="40"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="38"/>
+      <c r="H225" s="40"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="38"/>
+      <c r="H226" s="40"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="38"/>
+      <c r="H227" s="40"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="38"/>
+      <c r="H228" s="40"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="38"/>
+      <c r="H229" s="40"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="38"/>
+      <c r="H230" s="40"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="38"/>
+      <c r="H231" s="40"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="38"/>
+      <c r="H232" s="40"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="38"/>
+      <c r="H233" s="40"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="38"/>
+      <c r="H234" s="40"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="38"/>
+      <c r="H235" s="40"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="38"/>
+      <c r="H236" s="40"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="38"/>
+      <c r="H237" s="40"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="38"/>
+      <c r="H238" s="40"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="38"/>
+      <c r="H239" s="40"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="38"/>
+      <c r="H240" s="40"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="38"/>
+      <c r="H241" s="40"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="38"/>
+      <c r="H242" s="40"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="38"/>
+      <c r="H243" s="40"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="38"/>
+      <c r="H244" s="40"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="38"/>
+      <c r="H245" s="40"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="38"/>
+      <c r="H246" s="40"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="38"/>
+      <c r="H247" s="40"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="38"/>
+      <c r="H248" s="40"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="38"/>
+      <c r="H249" s="40"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="38"/>
+      <c r="H250" s="40"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="38"/>
+      <c r="H251" s="40"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="38"/>
+      <c r="H252" s="40"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="38"/>
+      <c r="H253" s="40"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="38"/>
+      <c r="H254" s="40"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="38"/>
+      <c r="H255" s="40"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="38"/>
+      <c r="H256" s="40"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="38"/>
+      <c r="H257" s="40"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="38"/>
+      <c r="H258" s="40"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="38"/>
+      <c r="H259" s="40"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="38"/>
+      <c r="H260" s="40"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="38"/>
+      <c r="H261" s="40"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="38"/>
+      <c r="H262" s="40"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="38"/>
+      <c r="H263" s="40"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="38"/>
+      <c r="H264" s="40"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="38"/>
+      <c r="H265" s="40"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="38"/>
+      <c r="H266" s="40"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="38"/>
+      <c r="H267" s="40"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="38"/>
+      <c r="H268" s="40"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="38"/>
+      <c r="H269" s="40"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="38"/>
+      <c r="H270" s="40"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="38"/>
+      <c r="H271" s="40"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="38"/>
+      <c r="H272" s="40"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="38"/>
+      <c r="H273" s="40"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="38"/>
+      <c r="H274" s="40"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="38"/>
+      <c r="H275" s="40"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="38"/>
+      <c r="H276" s="40"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="38"/>
+      <c r="H277" s="40"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="38"/>
+      <c r="H278" s="40"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="38"/>
+      <c r="H279" s="40"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="38"/>
+      <c r="H280" s="40"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="38"/>
+      <c r="H281" s="40"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="38"/>
+      <c r="H282" s="40"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="38"/>
+      <c r="H283" s="40"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="38"/>
+      <c r="H284" s="40"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="38"/>
+      <c r="H285" s="40"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="38"/>
+      <c r="H286" s="40"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="38"/>
+      <c r="H287" s="40"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="38"/>
+      <c r="H288" s="40"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="38"/>
+      <c r="H289" s="40"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="38"/>
+      <c r="H290" s="40"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="38"/>
+      <c r="H291" s="40"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="38"/>
+      <c r="H292" s="40"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="38"/>
+      <c r="H293" s="40"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="38"/>
+      <c r="H294" s="40"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="38"/>
+      <c r="H295" s="40"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="38"/>
+      <c r="H296" s="40"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="38"/>
+      <c r="H297" s="40"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="38"/>
+      <c r="H298" s="40"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="38"/>
+      <c r="H299" s="40"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="38"/>
+      <c r="H300" s="40"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="38"/>
+      <c r="H301" s="40"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="38"/>
+      <c r="H302" s="40"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="38"/>
+      <c r="H303" s="40"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="38"/>
+      <c r="H304" s="40"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="38"/>
+      <c r="H305" s="40"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="38"/>
+      <c r="H306" s="40"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="38"/>
+      <c r="H307" s="40"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="38"/>
+      <c r="H308" s="40"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="38"/>
+      <c r="H309" s="40"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="38"/>
+      <c r="H310" s="40"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="38"/>
+      <c r="H311" s="40"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="38"/>
+      <c r="H312" s="40"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="38"/>
+      <c r="H313" s="40"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="38"/>
+      <c r="H314" s="40"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="38"/>
+      <c r="H315" s="40"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="38"/>
+      <c r="H316" s="40"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="38"/>
+      <c r="H317" s="40"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="38"/>
+      <c r="H318" s="40"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="38"/>
+      <c r="H319" s="40"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="38"/>
+      <c r="H320" s="40"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="38"/>
+      <c r="H321" s="40"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="38"/>
+      <c r="H322" s="40"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="38"/>
+      <c r="H323" s="40"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="38"/>
+      <c r="H324" s="40"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="38"/>
+      <c r="H325" s="40"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="38"/>
+      <c r="H326" s="40"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="38"/>
+      <c r="H327" s="40"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="38"/>
+      <c r="H328" s="40"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="38"/>
+      <c r="H329" s="40"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="38"/>
+      <c r="H330" s="40"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="38"/>
+      <c r="H331" s="40"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="38"/>
+      <c r="H332" s="40"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="38"/>
+      <c r="H333" s="40"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="38"/>
+      <c r="H334" s="40"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="38"/>
+      <c r="H335" s="40"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="38"/>
+      <c r="H336" s="40"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="38"/>
+      <c r="H337" s="40"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="38"/>
+      <c r="H338" s="40"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="38"/>
+      <c r="H339" s="40"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="38"/>
+      <c r="H340" s="40"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="38"/>
+      <c r="H341" s="40"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="38"/>
+      <c r="H342" s="40"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="38"/>
+      <c r="H343" s="40"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="38"/>
+      <c r="H344" s="40"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="38"/>
+      <c r="H345" s="40"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="38"/>
+      <c r="H346" s="40"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="38"/>
+      <c r="H347" s="40"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="38"/>
+      <c r="H348" s="40"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="38"/>
+      <c r="H349" s="40"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="38"/>
+      <c r="H350" s="40"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="38"/>
+      <c r="H351" s="40"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="38"/>
+      <c r="H352" s="40"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="38"/>
+      <c r="H353" s="40"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="38"/>
+      <c r="H354" s="40"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="38"/>
+      <c r="H355" s="40"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="38"/>
+      <c r="H356" s="40"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="38"/>
+      <c r="H357" s="40"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="38"/>
+      <c r="H358" s="40"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="38"/>
+      <c r="H359" s="40"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="38"/>
+      <c r="H360" s="40"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="38"/>
+      <c r="H361" s="40"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="38"/>
+      <c r="H362" s="40"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="38"/>
+      <c r="H363" s="40"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="38"/>
+      <c r="H364" s="40"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="38"/>
+      <c r="H365" s="40"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="38"/>
+      <c r="H366" s="40"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="38"/>
+      <c r="H367" s="40"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="38"/>
+      <c r="H368" s="40"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="38"/>
+      <c r="H369" s="40"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="38"/>
+      <c r="H370" s="40"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="38"/>
+      <c r="H371" s="40"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="38"/>
+      <c r="H372" s="40"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="38"/>
+      <c r="H373" s="40"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="38"/>
+      <c r="H374" s="40"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="38"/>
+      <c r="H375" s="40"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="38"/>
+      <c r="H376" s="40"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="38"/>
+      <c r="H377" s="40"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="38"/>
+      <c r="H378" s="40"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="38"/>
+      <c r="H379" s="40"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="38"/>
+      <c r="H380" s="40"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="38"/>
+      <c r="H381" s="40"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="38"/>
+      <c r="H382" s="40"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="38"/>
+      <c r="H383" s="40"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="38"/>
+      <c r="H384" s="40"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="38"/>
+      <c r="H385" s="40"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="38"/>
+      <c r="H386" s="40"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="38"/>
+      <c r="H387" s="40"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="38"/>
+      <c r="H388" s="40"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="38"/>
+      <c r="H389" s="40"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="38"/>
+      <c r="H390" s="40"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="38"/>
+      <c r="H391" s="40"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="38"/>
+      <c r="H392" s="40"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="38"/>
+      <c r="H393" s="40"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="38"/>
+      <c r="H394" s="40"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="38"/>
+      <c r="H395" s="40"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="38"/>
+      <c r="H396" s="40"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="38"/>
+      <c r="H397" s="40"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="38"/>
+      <c r="H398" s="40"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="38"/>
+      <c r="H399" s="40"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="38"/>
+      <c r="H400" s="40"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="38"/>
+      <c r="H401" s="40"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="38"/>
+      <c r="H402" s="40"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="38"/>
+      <c r="H403" s="40"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="38"/>
+      <c r="H404" s="40"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="38"/>
+      <c r="H405" s="40"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="38"/>
+      <c r="H406" s="40"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="38"/>
+      <c r="H407" s="40"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="38"/>
+      <c r="H408" s="40"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="38"/>
+      <c r="H409" s="40"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="38"/>
+      <c r="H410" s="40"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="38"/>
+      <c r="H411" s="40"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="38"/>
+      <c r="H412" s="40"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="38"/>
+      <c r="H413" s="40"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="38"/>
+      <c r="H414" s="40"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="38"/>
+      <c r="H415" s="40"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="38"/>
+      <c r="H416" s="40"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="38"/>
+      <c r="H417" s="40"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="38"/>
+      <c r="H418" s="40"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="38"/>
+      <c r="H419" s="40"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="38"/>
+      <c r="H420" s="40"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="38"/>
+      <c r="H421" s="40"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="38"/>
+      <c r="H422" s="40"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="38"/>
+      <c r="H423" s="40"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="38"/>
+      <c r="H424" s="40"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="38"/>
+      <c r="H425" s="40"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="38"/>
+      <c r="H426" s="40"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="38"/>
+      <c r="H427" s="40"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="38"/>
+      <c r="H428" s="40"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="38"/>
+      <c r="H429" s="40"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="38"/>
+      <c r="H430" s="40"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="38"/>
+      <c r="H431" s="40"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="38"/>
+      <c r="H432" s="40"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="38"/>
+      <c r="H433" s="40"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="38"/>
+      <c r="H434" s="40"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="38"/>
+      <c r="H435" s="40"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="38"/>
+      <c r="H436" s="40"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="38"/>
+      <c r="H437" s="40"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="38"/>
+      <c r="H438" s="40"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="38"/>
+      <c r="H439" s="40"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="38"/>
+      <c r="H440" s="40"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="38"/>
+      <c r="H441" s="40"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="38"/>
+      <c r="H442" s="40"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="38"/>
+      <c r="H443" s="40"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="38"/>
+      <c r="H444" s="40"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="38"/>
+      <c r="H445" s="40"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="38"/>
+      <c r="H446" s="40"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="38"/>
+      <c r="H447" s="40"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="38"/>
+      <c r="H448" s="40"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="38"/>
+      <c r="H449" s="40"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="38"/>
+      <c r="H450" s="40"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="38"/>
+      <c r="H451" s="40"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="38"/>
+      <c r="H452" s="40"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="38"/>
+      <c r="H453" s="40"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="38"/>
+      <c r="H454" s="40"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="38"/>
+      <c r="H455" s="40"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="38"/>
+      <c r="H456" s="40"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="38"/>
+      <c r="H457" s="40"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="38"/>
+      <c r="H458" s="40"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="38"/>
+      <c r="H459" s="40"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="38"/>
+      <c r="H460" s="40"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="38"/>
+      <c r="H461" s="40"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="38"/>
+      <c r="H462" s="40"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="38"/>
+      <c r="H463" s="40"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="38"/>
+      <c r="H464" s="40"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="38"/>
+      <c r="H465" s="40"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="38"/>
+      <c r="H466" s="40"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="38"/>
+      <c r="H467" s="40"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="38"/>
+      <c r="H468" s="40"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="38"/>
+      <c r="H469" s="40"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="38"/>
+      <c r="H470" s="40"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="38"/>
+      <c r="H471" s="40"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="38"/>
+      <c r="H472" s="40"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="38"/>
+      <c r="H473" s="40"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="38"/>
+      <c r="H474" s="40"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="38"/>
+      <c r="H475" s="40"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="38"/>
+      <c r="H476" s="40"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="38"/>
+      <c r="H477" s="40"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="38"/>
+      <c r="H478" s="40"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="38"/>
+      <c r="H479" s="40"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="38"/>
+      <c r="H480" s="40"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="38"/>
+      <c r="H481" s="40"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="38"/>
+      <c r="H482" s="40"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="38"/>
+      <c r="H483" s="40"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="38"/>
+      <c r="H484" s="40"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="38"/>
+      <c r="H485" s="40"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="38"/>
+      <c r="H486" s="40"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="38"/>
+      <c r="H487" s="40"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="38"/>
+      <c r="H488" s="40"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="38"/>
+      <c r="H489" s="40"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="38"/>
+      <c r="H490" s="40"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="38"/>
+      <c r="H491" s="40"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="38"/>
+      <c r="H492" s="40"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="38"/>
+      <c r="H493" s="40"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="38"/>
+      <c r="H494" s="40"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="38"/>
+      <c r="H495" s="40"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="38"/>
+      <c r="H496" s="40"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="38"/>
+      <c r="H497" s="40"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="38"/>
+      <c r="H498" s="40"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="38"/>
+      <c r="H499" s="40"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="38"/>
+      <c r="H500" s="40"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="38"/>
+      <c r="H501" s="40"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="38"/>
+      <c r="H502" s="40"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="38"/>
+      <c r="H503" s="40"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="38"/>
+      <c r="H504" s="40"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="38"/>
+      <c r="H505" s="40"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="38"/>
+      <c r="H506" s="40"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="38"/>
+      <c r="H507" s="40"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="38"/>
+      <c r="H508" s="40"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="38"/>
+      <c r="H509" s="40"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="38"/>
+      <c r="H510" s="40"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="38"/>
+      <c r="H511" s="40"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="38"/>
+      <c r="H512" s="40"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="38"/>
+      <c r="H513" s="40"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="38"/>
+      <c r="H514" s="40"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="38"/>
+      <c r="H515" s="40"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="38"/>
+      <c r="H516" s="40"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="38"/>
+      <c r="H517" s="40"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="38"/>
+      <c r="H518" s="40"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="38"/>
+      <c r="H519" s="40"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="38"/>
+      <c r="H520" s="40"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="38"/>
+      <c r="H521" s="40"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="38"/>
+      <c r="H522" s="40"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="38"/>
+      <c r="H523" s="40"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="38"/>
+      <c r="H524" s="40"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="38"/>
+      <c r="H525" s="40"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="38"/>
+      <c r="H526" s="40"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="38"/>
+      <c r="H527" s="40"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="38"/>
+      <c r="H528" s="40"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="38"/>
+      <c r="H529" s="40"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="38"/>
+      <c r="H530" s="40"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="38"/>
+      <c r="H531" s="40"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="38"/>
+      <c r="H532" s="40"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="38"/>
+      <c r="H533" s="40"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="38"/>
+      <c r="H534" s="40"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="38"/>
+      <c r="H535" s="40"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="38"/>
+      <c r="H536" s="40"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="38"/>
+      <c r="H537" s="40"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="38"/>
+      <c r="H538" s="40"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="38"/>
+      <c r="H539" s="40"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="38"/>
+      <c r="H540" s="40"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="38"/>
+      <c r="H541" s="40"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="38"/>
+      <c r="H542" s="40"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="38"/>
+      <c r="H543" s="40"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="38"/>
+      <c r="H544" s="40"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="38"/>
+      <c r="H545" s="40"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="38"/>
+      <c r="H546" s="40"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="38"/>
+      <c r="H547" s="40"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="38"/>
+      <c r="H548" s="40"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="38"/>
+      <c r="H549" s="40"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="38"/>
+      <c r="H550" s="40"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="38"/>
+      <c r="H551" s="40"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="38"/>
+      <c r="H552" s="40"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="38"/>
+      <c r="H553" s="40"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="38"/>
+      <c r="H554" s="40"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="38"/>
+      <c r="H555" s="40"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="38"/>
+      <c r="H556" s="40"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="38"/>
+      <c r="H557" s="40"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="38"/>
+      <c r="H558" s="40"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="38"/>
+      <c r="H559" s="40"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="38"/>
+      <c r="H560" s="40"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="38"/>
+      <c r="H561" s="40"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="38"/>
+      <c r="H562" s="40"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="38"/>
+      <c r="H563" s="40"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="38"/>
+      <c r="H564" s="40"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="38"/>
+      <c r="H565" s="40"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="38"/>
+      <c r="H566" s="40"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="38"/>
+      <c r="H567" s="40"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="38"/>
+      <c r="H568" s="40"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="38"/>
+      <c r="H569" s="40"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="38"/>
+      <c r="H570" s="40"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="38"/>
+      <c r="H571" s="40"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="38"/>
+      <c r="H572" s="40"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="38"/>
+      <c r="H573" s="40"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="38"/>
+      <c r="H574" s="40"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="38"/>
+      <c r="H575" s="40"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="38"/>
+      <c r="H576" s="40"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="38"/>
+      <c r="H577" s="40"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="38"/>
+      <c r="H578" s="40"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="38"/>
+      <c r="H579" s="40"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="38"/>
+      <c r="H580" s="40"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="38"/>
+      <c r="H581" s="40"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="38"/>
+      <c r="H582" s="40"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="38"/>
+      <c r="H583" s="40"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="38"/>
+      <c r="H584" s="40"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="38"/>
+      <c r="H585" s="40"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="38"/>
+      <c r="H586" s="40"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="38"/>
+      <c r="H587" s="40"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="38"/>
+      <c r="H588" s="40"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="38"/>
+      <c r="H589" s="40"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="38"/>
+      <c r="H590" s="40"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="38"/>
+      <c r="H591" s="40"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="38"/>
+      <c r="H592" s="40"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="38"/>
+      <c r="H593" s="40"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="38"/>
+      <c r="H594" s="40"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="38"/>
+      <c r="H595" s="40"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="38"/>
+      <c r="H596" s="40"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="38"/>
+      <c r="H597" s="40"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="38"/>
+      <c r="H598" s="40"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="38"/>
+      <c r="H599" s="40"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="38"/>
+      <c r="H600" s="40"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="38"/>
+      <c r="H601" s="40"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="38"/>
+      <c r="H602" s="40"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="38"/>
+      <c r="H603" s="40"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="38"/>
+      <c r="H604" s="40"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="38"/>
+      <c r="H605" s="40"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="38"/>
+      <c r="H606" s="40"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="38"/>
+      <c r="H607" s="40"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="38"/>
+      <c r="H608" s="40"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="38"/>
+      <c r="H609" s="40"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="38"/>
+      <c r="H610" s="40"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="38"/>
+      <c r="H611" s="40"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="38"/>
+      <c r="H612" s="40"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="38"/>
+      <c r="H613" s="40"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="38"/>
+      <c r="H614" s="40"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="38"/>
+      <c r="H615" s="40"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="38"/>
+      <c r="H616" s="40"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="38"/>
+      <c r="H617" s="40"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="38"/>
+      <c r="H618" s="40"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="38"/>
+      <c r="H619" s="40"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="38"/>
+      <c r="H620" s="40"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="38"/>
+      <c r="H621" s="40"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="38"/>
+      <c r="H622" s="40"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="38"/>
+      <c r="H623" s="40"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="38"/>
+      <c r="H624" s="40"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="38"/>
+      <c r="H625" s="40"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="38"/>
+      <c r="H626" s="40"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="38"/>
+      <c r="H627" s="40"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="38"/>
+      <c r="H628" s="40"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="38"/>
+      <c r="H629" s="40"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="38"/>
+      <c r="H630" s="40"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="38"/>
+      <c r="H631" s="40"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="38"/>
+      <c r="H632" s="40"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="38"/>
+      <c r="H633" s="40"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="38"/>
+      <c r="H634" s="40"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="38"/>
+      <c r="H635" s="40"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="38"/>
+      <c r="H636" s="40"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="38"/>
+      <c r="H637" s="40"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="38"/>
+      <c r="H638" s="40"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="38"/>
+      <c r="H639" s="40"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="38"/>
+      <c r="H640" s="40"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="38"/>
+      <c r="H641" s="40"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="38"/>
+      <c r="H642" s="40"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="38"/>
+      <c r="H643" s="40"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="38"/>
+      <c r="H644" s="40"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="38"/>
+      <c r="H645" s="40"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="38"/>
+      <c r="H646" s="40"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="38"/>
+      <c r="H647" s="40"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="38"/>
+      <c r="H648" s="40"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="38"/>
+      <c r="H649" s="40"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="38"/>
+      <c r="H650" s="40"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="38"/>
+      <c r="H651" s="40"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="38"/>
+      <c r="H652" s="40"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="38"/>
+      <c r="H653" s="40"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="38"/>
+      <c r="H654" s="40"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="38"/>
+      <c r="H655" s="40"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="38"/>
+      <c r="H656" s="40"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="38"/>
+      <c r="H657" s="40"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="38"/>
+      <c r="H658" s="40"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="38"/>
+      <c r="H659" s="40"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="38"/>
+      <c r="H660" s="40"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="38"/>
+      <c r="H661" s="40"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="38"/>
+      <c r="H662" s="40"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="38"/>
+      <c r="H663" s="40"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="38"/>
+      <c r="H664" s="40"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="38"/>
+      <c r="H665" s="40"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="38"/>
+      <c r="H666" s="40"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="38"/>
+      <c r="H667" s="40"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="38"/>
+      <c r="H668" s="40"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="38"/>
+      <c r="H669" s="40"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="38"/>
+      <c r="H670" s="40"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="38"/>
+      <c r="H671" s="40"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="38"/>
+      <c r="H672" s="40"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="38"/>
+      <c r="H673" s="40"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="38"/>
+      <c r="H674" s="40"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="38"/>
+      <c r="H675" s="40"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="38"/>
+      <c r="H676" s="40"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="38"/>
+      <c r="H677" s="40"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="38"/>
+      <c r="H678" s="40"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="38"/>
+      <c r="H679" s="40"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="38"/>
+      <c r="H680" s="40"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="38"/>
+      <c r="H681" s="40"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="38"/>
+      <c r="H682" s="40"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="38"/>
+      <c r="H683" s="40"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="38"/>
+      <c r="H684" s="40"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="38"/>
+      <c r="H685" s="40"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="38"/>
+      <c r="H686" s="40"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="38"/>
+      <c r="H687" s="40"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="38"/>
+      <c r="H688" s="40"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="38"/>
+      <c r="H689" s="40"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="38"/>
+      <c r="H690" s="40"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="38"/>
+      <c r="H691" s="40"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="38"/>
+      <c r="H692" s="40"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="38"/>
+      <c r="H693" s="40"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="38"/>
+      <c r="H694" s="40"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="38"/>
+      <c r="H695" s="40"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="38"/>
+      <c r="H696" s="40"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="38"/>
+      <c r="H697" s="40"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="38"/>
+      <c r="H698" s="40"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="38"/>
+      <c r="H699" s="40"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="38"/>
+      <c r="H700" s="40"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="38"/>
+      <c r="H701" s="40"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="38"/>
+      <c r="H702" s="40"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="38"/>
+      <c r="H703" s="40"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="38"/>
+      <c r="H704" s="40"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="38"/>
+      <c r="H705" s="40"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="38"/>
+      <c r="H706" s="40"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="38"/>
+      <c r="H707" s="40"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="38"/>
+      <c r="H708" s="40"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="38"/>
+      <c r="H709" s="40"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="38"/>
+      <c r="H710" s="40"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="38"/>
+      <c r="H711" s="40"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="38"/>
+      <c r="H712" s="40"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="38"/>
+      <c r="H713" s="40"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="38"/>
+      <c r="H714" s="40"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="38"/>
+      <c r="H715" s="40"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="38"/>
+      <c r="H716" s="40"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="38"/>
+      <c r="H717" s="40"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="38"/>
+      <c r="H718" s="40"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="38"/>
+      <c r="H719" s="40"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="38"/>
+      <c r="H720" s="40"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="38"/>
+      <c r="H721" s="40"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="38"/>
+      <c r="H722" s="40"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="38"/>
+      <c r="H723" s="40"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="38"/>
+      <c r="H724" s="40"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="38"/>
+      <c r="H725" s="40"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="38"/>
+      <c r="H726" s="40"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="38"/>
+      <c r="H727" s="40"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="38"/>
+      <c r="H728" s="40"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="38"/>
+      <c r="H729" s="40"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="38"/>
+      <c r="H730" s="40"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="38"/>
+      <c r="H731" s="40"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="38"/>
+      <c r="H732" s="40"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="38"/>
+      <c r="H733" s="40"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="38"/>
+      <c r="H734" s="40"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="38"/>
+      <c r="H735" s="40"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="38"/>
+      <c r="H736" s="40"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="38"/>
+      <c r="H737" s="40"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="38"/>
+      <c r="H738" s="40"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="38"/>
+      <c r="H739" s="40"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="38"/>
+      <c r="H740" s="40"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="38"/>
+      <c r="H741" s="40"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="38"/>
+      <c r="H742" s="40"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="38"/>
+      <c r="H743" s="40"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="38"/>
+      <c r="H744" s="40"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="38"/>
+      <c r="H745" s="40"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="38"/>
+      <c r="H746" s="40"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="38"/>
+      <c r="H747" s="40"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="38"/>
+      <c r="H748" s="40"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="38"/>
+      <c r="H749" s="40"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="38"/>
+      <c r="H750" s="40"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="38"/>
+      <c r="H751" s="40"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="38"/>
+      <c r="H752" s="40"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="38"/>
+      <c r="H753" s="40"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="38"/>
+      <c r="H754" s="40"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="38"/>
+      <c r="H755" s="40"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="38"/>
+      <c r="H756" s="40"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="38"/>
+      <c r="H757" s="40"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="38"/>
+      <c r="H758" s="40"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="38"/>
+      <c r="H759" s="40"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="38"/>
+      <c r="H760" s="40"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="38"/>
+      <c r="H761" s="40"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="38"/>
+      <c r="H762" s="40"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="38"/>
+      <c r="H763" s="40"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="38"/>
+      <c r="H764" s="40"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="38"/>
+      <c r="H765" s="40"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="38"/>
+      <c r="H766" s="40"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="38"/>
+      <c r="H767" s="40"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="38"/>
+      <c r="H768" s="40"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="38"/>
+      <c r="H769" s="40"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="38"/>
+      <c r="H770" s="40"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="38"/>
+      <c r="H771" s="40"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="38"/>
+      <c r="H772" s="40"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="38"/>
+      <c r="H773" s="40"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="38"/>
+      <c r="H774" s="40"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="38"/>
+      <c r="H775" s="40"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="38"/>
+      <c r="H776" s="40"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="38"/>
+      <c r="H777" s="40"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="38"/>
+      <c r="H778" s="40"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="38"/>
+      <c r="H779" s="40"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="38"/>
+      <c r="H780" s="40"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="38"/>
+      <c r="H781" s="40"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="38"/>
+      <c r="H782" s="40"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="38"/>
+      <c r="H783" s="40"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="38"/>
+      <c r="H784" s="40"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="38"/>
+      <c r="H785" s="40"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="38"/>
+      <c r="H786" s="40"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="38"/>
+      <c r="H787" s="40"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="38"/>
+      <c r="H788" s="40"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="38"/>
+      <c r="H789" s="40"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="38"/>
+      <c r="H790" s="40"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="38"/>
+      <c r="H791" s="40"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="38"/>
+      <c r="H792" s="40"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="38"/>
+      <c r="H793" s="40"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="38"/>
+      <c r="H794" s="40"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="38"/>
+      <c r="H795" s="40"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="38"/>
+      <c r="H796" s="40"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="38"/>
+      <c r="H797" s="40"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="38"/>
+      <c r="H798" s="40"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="38"/>
+      <c r="H799" s="40"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="38"/>
+      <c r="H800" s="40"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="38"/>
+      <c r="H801" s="40"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="38"/>
+      <c r="H802" s="40"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="38"/>
+      <c r="H803" s="40"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="38"/>
+      <c r="H804" s="40"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="38"/>
+      <c r="H805" s="40"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="38"/>
+      <c r="H806" s="40"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="38"/>
+      <c r="H807" s="40"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="38"/>
+      <c r="H808" s="40"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="38"/>
+      <c r="H809" s="40"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="38"/>
+      <c r="H810" s="40"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="38"/>
+      <c r="H811" s="40"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="38"/>
+      <c r="H812" s="40"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="38"/>
+      <c r="H813" s="40"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="38"/>
+      <c r="H814" s="40"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="38"/>
+      <c r="H815" s="40"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="38"/>
+      <c r="H816" s="40"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="38"/>
+      <c r="H817" s="40"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="38"/>
+      <c r="H818" s="40"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="38"/>
+      <c r="H819" s="40"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="38"/>
+      <c r="H820" s="40"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="38"/>
+      <c r="H821" s="40"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="38"/>
+      <c r="H822" s="40"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="38"/>
+      <c r="H823" s="40"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="38"/>
+      <c r="H824" s="40"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="38"/>
+      <c r="H825" s="40"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="38"/>
+      <c r="H826" s="40"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="38"/>
+      <c r="H827" s="40"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="38"/>
+      <c r="H828" s="40"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="38"/>
+      <c r="H829" s="40"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="38"/>
+      <c r="H830" s="40"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="38"/>
+      <c r="H831" s="40"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="38"/>
+      <c r="H832" s="40"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="38"/>
+      <c r="H833" s="40"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="38"/>
+      <c r="H834" s="40"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="38"/>
+      <c r="H835" s="40"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="38"/>
+      <c r="H836" s="40"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="38"/>
+      <c r="H837" s="40"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="38"/>
+      <c r="H838" s="40"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="38"/>
+      <c r="H839" s="40"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="38"/>
+      <c r="H840" s="40"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="38"/>
+      <c r="H841" s="40"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="38"/>
+      <c r="H842" s="40"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="38"/>
+      <c r="H843" s="40"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="38"/>
+      <c r="H844" s="40"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="38"/>
+      <c r="H845" s="40"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="38"/>
+      <c r="H846" s="40"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="38"/>
+      <c r="H847" s="40"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="38"/>
+      <c r="H848" s="40"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="38"/>
+      <c r="H849" s="40"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="38"/>
+      <c r="H850" s="40"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="38"/>
+      <c r="H851" s="40"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="38"/>
+      <c r="H852" s="40"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="38"/>
+      <c r="H853" s="40"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="38"/>
+      <c r="H854" s="40"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="38"/>
+      <c r="H855" s="40"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="38"/>
+      <c r="H856" s="40"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="38"/>
+      <c r="H857" s="40"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="38"/>
+      <c r="H858" s="40"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="38"/>
+      <c r="H859" s="40"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="38"/>
+      <c r="H860" s="40"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="38"/>
+      <c r="H861" s="40"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="38"/>
+      <c r="H862" s="40"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="38"/>
+      <c r="H863" s="40"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="38"/>
+      <c r="H864" s="40"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="38"/>
+      <c r="H865" s="40"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="38"/>
+      <c r="H866" s="40"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="38"/>
+      <c r="H867" s="40"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="38"/>
+      <c r="H868" s="40"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="38"/>
+      <c r="H869" s="40"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="38"/>
+      <c r="H870" s="40"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="38"/>
+      <c r="H871" s="40"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="38"/>
+      <c r="H872" s="40"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="38"/>
+      <c r="H873" s="40"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="38"/>
+      <c r="H874" s="40"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="38"/>
+      <c r="H875" s="40"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="38"/>
+      <c r="H876" s="40"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="38"/>
+      <c r="H877" s="40"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="38"/>
+      <c r="H878" s="40"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="38"/>
+      <c r="H879" s="40"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="38"/>
+      <c r="H880" s="40"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="38"/>
+      <c r="H881" s="40"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="38"/>
+      <c r="H882" s="40"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="38"/>
+      <c r="H883" s="40"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="38"/>
+      <c r="H884" s="40"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="38"/>
+      <c r="H885" s="40"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="38"/>
+      <c r="H886" s="40"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="38"/>
+      <c r="H887" s="40"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="38"/>
+      <c r="H888" s="40"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="38"/>
+      <c r="H889" s="40"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="38"/>
+      <c r="H890" s="40"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="38"/>
+      <c r="H891" s="40"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="38"/>
+      <c r="H892" s="40"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="38"/>
+      <c r="H893" s="40"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="38"/>
+      <c r="H894" s="40"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="38"/>
+      <c r="H895" s="40"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="38"/>
+      <c r="H896" s="40"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="38"/>
+      <c r="H897" s="40"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="38"/>
+      <c r="H898" s="40"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="38"/>
+      <c r="H899" s="40"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="38"/>
+      <c r="H900" s="40"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="38"/>
+      <c r="H901" s="40"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="38"/>
+      <c r="H902" s="40"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="38"/>
+      <c r="H903" s="40"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="38"/>
+      <c r="H904" s="40"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="38"/>
+      <c r="H905" s="40"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="38"/>
+      <c r="H906" s="40"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="38"/>
+      <c r="H907" s="40"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="38"/>
+      <c r="H908" s="40"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="38"/>
+      <c r="H909" s="40"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="38"/>
+      <c r="H910" s="40"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="38"/>
+      <c r="H911" s="40"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="38"/>
+      <c r="H912" s="40"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="38"/>
+      <c r="H913" s="40"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="38"/>
+      <c r="H914" s="40"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="38"/>
+      <c r="H915" s="40"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="38"/>
+      <c r="H916" s="40"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="38"/>
+      <c r="H917" s="40"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="38"/>
+      <c r="H918" s="40"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="38"/>
+      <c r="H919" s="40"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="38"/>
+      <c r="H920" s="40"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="38"/>
+      <c r="H921" s="40"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="38"/>
+      <c r="H922" s="40"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="38"/>
+      <c r="H923" s="40"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="38"/>
+      <c r="H924" s="40"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="38"/>
+      <c r="H925" s="40"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="38"/>
+      <c r="H926" s="40"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="38"/>
+      <c r="H927" s="40"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="38"/>
+      <c r="H928" s="40"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="38"/>
+      <c r="H929" s="40"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="38"/>
+      <c r="H930" s="40"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="38"/>
+      <c r="H931" s="40"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="38"/>
+      <c r="H932" s="40"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="38"/>
+      <c r="H933" s="40"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="38"/>
+      <c r="H934" s="40"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="38"/>
+      <c r="H935" s="40"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="38"/>
+      <c r="H936" s="40"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="38"/>
+      <c r="H937" s="40"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="38"/>
+      <c r="H938" s="40"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="38"/>
+      <c r="H939" s="40"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="38"/>
+      <c r="H940" s="40"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="38"/>
+      <c r="H941" s="40"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="38"/>
+      <c r="H942" s="40"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="38"/>
+      <c r="H943" s="40"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="38"/>
+      <c r="H944" s="40"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="38"/>
+      <c r="H945" s="40"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="38"/>
+      <c r="H946" s="40"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="38"/>
+      <c r="H947" s="40"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="38"/>
+      <c r="H948" s="40"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="38"/>
+      <c r="H949" s="40"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="38"/>
+      <c r="H950" s="40"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="38"/>
+      <c r="H951" s="40"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="38"/>
+      <c r="H952" s="40"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="38"/>
+      <c r="H953" s="40"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="38"/>
+      <c r="H954" s="40"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="38"/>
+      <c r="H955" s="40"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="38"/>
+      <c r="H956" s="40"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="38"/>
+      <c r="H957" s="40"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="38"/>
+      <c r="H958" s="40"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="38"/>
+      <c r="H959" s="40"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="38"/>
+      <c r="H960" s="40"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="38"/>
+      <c r="H961" s="40"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="38"/>
+      <c r="H962" s="40"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="38"/>
+      <c r="H963" s="40"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="38"/>
+      <c r="H964" s="40"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="38"/>
+      <c r="H965" s="40"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="38"/>
+      <c r="H966" s="40"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="38"/>
+      <c r="H967" s="40"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="38"/>
+      <c r="H968" s="40"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="38"/>
+      <c r="H969" s="40"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="38"/>
+      <c r="H970" s="40"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="38"/>
+      <c r="H971" s="40"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="38"/>
+      <c r="H972" s="40"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="38"/>
+      <c r="H973" s="40"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="38"/>
+      <c r="H974" s="40"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="38"/>
+      <c r="H975" s="40"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="38"/>
+      <c r="H976" s="40"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="38"/>
+      <c r="H977" s="40"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="38"/>
+      <c r="H978" s="40"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="38"/>
+      <c r="H979" s="40"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="38"/>
+      <c r="H980" s="40"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="38"/>
+      <c r="H981" s="40"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="38"/>
+      <c r="H982" s="40"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="38"/>
+      <c r="H983" s="40"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="38"/>
+      <c r="H984" s="40"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="38"/>
+      <c r="H985" s="40"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="38"/>
+      <c r="H986" s="40"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="38"/>
+      <c r="H987" s="40"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="38"/>
+      <c r="H988" s="40"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="38"/>
+      <c r="H989" s="40"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="38"/>
+      <c r="H990" s="40"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="38"/>
+      <c r="H991" s="40"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="38"/>
+      <c r="H992" s="40"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="38"/>
+      <c r="H993" s="40"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="38"/>
+      <c r="H994" s="40"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="38"/>
+      <c r="H995" s="40"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="38"/>
+      <c r="H996" s="40"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="38"/>
+      <c r="H997" s="40"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="38"/>
+      <c r="H998" s="40"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="38"/>
+      <c r="H999" s="40"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="38"/>
+      <c r="H1000" s="40"/>
+    </row>
+    <row r="1001">
+      <c r="B1001" s="38"/>
+      <c r="H1001" s="40"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="38"/>
+      <c r="H1002" s="40"/>
+    </row>
+    <row r="1003">
+      <c r="B1003" s="38"/>
+      <c r="H1003" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5089,95 +9472,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5194,117 +9577,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="1.5" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5328,13 +9711,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -5362,106 +9745,104 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -5509,10 +9890,10 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5535,10 +9916,10 @@
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -5561,10 +9942,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -5587,10 +9968,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5613,10 +9994,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -5639,7 +10020,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>3</v>
@@ -5665,10 +10046,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -5691,10 +10072,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>64</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -5717,10 +10098,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -5743,10 +10124,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5769,7 +10150,7 @@
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5793,7 +10174,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5817,7 +10198,7 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -5841,7 +10222,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -5865,7 +10246,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -5889,7 +10270,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -5913,10 +10294,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -5939,10 +10320,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5965,10 +10346,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -5991,10 +10372,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -7894,42 +12275,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>85</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -11930,58 +16311,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -12004,7 +16385,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -12033,27 +16414,27 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -12082,50 +16463,50 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -4,10 +4,10 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="meta" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="before" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="during" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="after" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="share" sheetId="5" r:id="rId7"/>
+    <sheet state="visible" name="share" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="before" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="during" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="after" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="newsletter" sheetId="6" r:id="rId8"/>
     <sheet state="visible" name="donate" sheetId="7" r:id="rId9"/>
     <sheet state="visible" name="donate_buttons" sheetId="8" r:id="rId10"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="186">
   <si>
     <t>key</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>dev_state</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
   <si>
     <t>live_audio</t>
@@ -83,87 +86,6 @@
   </si>
   <si>
     <t>&lt;p&gt;If you think so, we’d love your help. Public Radio is funded a few ways, but mostly from your donations to local public radio stations.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>Titlecard</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Podcast</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>Get Caught Up</t>
-  </si>
-  <si>
-    <t>get_caught_up</t>
-  </si>
-  <si>
-    <t>Donate</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>donate</t>
-  </si>
-  <si>
-    <t>Republican Delegates</t>
-  </si>
-  <si>
-    <t>delegates</t>
-  </si>
-  <si>
-    <t>gop</t>
-  </si>
-  <si>
-    <t>Democratic Delegates</t>
-  </si>
-  <si>
-    <t>dem</t>
-  </si>
-  <si>
-    <t>Newsletter</t>
-  </si>
-  <si>
-    <t>newsletter</t>
-  </si>
-  <si>
-    <t>Feedback</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t>Republican Results</t>
-  </si>
-  <si>
-    <t>results_pr</t>
-  </si>
-  <si>
-    <t>Democratic Results</t>
-  </si>
-  <si>
-    <t>results_single</t>
-  </si>
-  <si>
-    <t>What Happened</t>
-  </si>
-  <si>
-    <t>what_happened</t>
   </si>
   <si>
     <t>meta_description</t>
@@ -257,6 +179,96 @@
   </si>
   <si>
     <t>Leave a comment</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>Titlecard</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Podcast</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>Audio Story</t>
+  </si>
+  <si>
+    <t>audio_story</t>
+  </si>
+  <si>
+    <t>1gAmyOr5F9Cdv3rCU-OyB_nlN7GtXn2k8K_pMRjqjQCg</t>
+  </si>
+  <si>
+    <t>Get Caught Up</t>
+  </si>
+  <si>
+    <t>get_caught_up</t>
+  </si>
+  <si>
+    <t>Donate</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>Republican Delegates</t>
+  </si>
+  <si>
+    <t>delegates</t>
+  </si>
+  <si>
+    <t>gop</t>
+  </si>
+  <si>
+    <t>Democratic Delegates</t>
+  </si>
+  <si>
+    <t>dem</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>newsletter</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>Republican Results</t>
+  </si>
+  <si>
+    <t>results_pr</t>
+  </si>
+  <si>
+    <t>Democratic Results</t>
+  </si>
+  <si>
+    <t>results_single</t>
+  </si>
+  <si>
+    <t>What Happened</t>
+  </si>
+  <si>
+    <t>what_happened</t>
   </si>
   <si>
     <t>error_headline</t>
@@ -681,15 +693,6 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -715,6 +718,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -913,60 +925,60 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -993,34 +1005,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -5018,85 +5030,85 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5113,77 +5125,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -5201,34 +5213,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" s="30" t="str">
         <f t="shared" ref="B2:B5" si="1">H2</f>
@@ -5239,11 +5251,11 @@
         <v>71.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="33" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H2" s="34">
         <v>24787.0</v>
@@ -5257,7 +5269,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5269,7 +5281,7 @@
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="33" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H3" s="34">
         <v>4479.0</v>
@@ -5283,7 +5295,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B4" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5295,7 +5307,7 @@
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="33" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="34">
         <v>2903.0</v>
@@ -5309,7 +5321,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B5" s="30" t="str">
         <f t="shared" si="1"/>
@@ -5321,7 +5333,7 @@
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="33" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H5" s="34">
         <v>450.0</v>
@@ -5335,7 +5347,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B6" s="36" t="str">
         <f>sum(H6:H14)</f>
@@ -5347,7 +5359,7 @@
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="33" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H6" s="34">
         <v>273.0</v>
@@ -5370,7 +5382,7 @@
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="33" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H7" s="34">
         <v>229.0</v>
@@ -5386,7 +5398,7 @@
       <c r="B8" s="38"/>
       <c r="F8" s="32"/>
       <c r="G8" s="33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H8" s="34">
         <v>125.0</v>
@@ -5402,7 +5414,7 @@
       <c r="B9" s="38"/>
       <c r="F9" s="32"/>
       <c r="G9" s="33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H9" s="34">
         <v>58.0</v>
@@ -5418,7 +5430,7 @@
       <c r="B10" s="38"/>
       <c r="F10" s="32"/>
       <c r="G10" s="33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H10" s="34">
         <v>39.0</v>
@@ -5432,21 +5444,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="32"/>
       <c r="G11" s="33" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H11" s="34">
         <v>28.0</v>
@@ -5460,18 +5472,18 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="32"/>
       <c r="G12" s="33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H12" s="34">
         <v>25.0</v>
@@ -5485,18 +5497,18 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H13" s="34">
         <v>19.0</v>
@@ -5510,18 +5522,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="32"/>
       <c r="G14" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H14" s="34">
         <v>1413.0</v>
@@ -5530,28 +5542,28 @@
         <v>4.0E-4</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E15" s="41"/>
       <c r="H15" s="43"/>
     </row>
     <row r="16">
       <c r="B16" s="44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H16" s="43"/>
     </row>
@@ -9514,102 +9526,2377 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="36.57"/>
+    <col customWidth="1" min="2" max="2" width="84.0"/>
+    <col customWidth="1" min="3" max="20" width="17.29"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30.0" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" ht="30.0" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" ht="30.0" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+    </row>
+    <row r="4" ht="30.0" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" ht="30.0" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" ht="30.0" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" ht="30.0" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" ht="30.0" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" ht="30.0" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" ht="30.0" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" ht="30.0" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" ht="30.0" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" ht="30.0" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" ht="30.0" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" ht="30.0" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" ht="30.0" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" ht="30.0" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+    </row>
+    <row r="20" ht="30.0" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B3"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9621,116 +11908,107 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
+      <c r="A2" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>43</v>
+      <c r="A5" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="1.5" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -9739,6 +12017,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" ht="1.5" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9753,2523 +12156,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>23</v>
+      <c r="A2" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="36.57"/>
-    <col customWidth="1" min="2" max="2" width="84.0"/>
-    <col customWidth="1" min="3" max="20" width="17.29"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" ht="30.0" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-    </row>
-    <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-    </row>
-    <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" ht="30.0" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" ht="30.0" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" ht="30.0" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" ht="30.0" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
-      <c r="Q102" s="16"/>
-      <c r="R102" s="16"/>
-      <c r="S102" s="16"/>
-      <c r="T102" s="16"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="16"/>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
-      <c r="R103" s="16"/>
-      <c r="S103" s="16"/>
-      <c r="T103" s="16"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
-      <c r="S104" s="16"/>
-      <c r="T104" s="16"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12291,69 +12314,69 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -16354,58 +16377,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -16428,56 +16451,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+        <v>94</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -16506,50 +16529,50 @@
     </row>
     <row r="2">
       <c r="A2" s="21" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
   <si>
     <t>key</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Republican Results</t>
   </si>
   <si>
-    <t>Democratic Results</t>
-  </si>
-  <si>
     <t>Get Caught Up</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>what_happened</t>
+  </si>
+  <si>
+    <t>Democratic Results</t>
   </si>
   <si>
     <t>error_headline</t>
@@ -9135,7 +9135,7 @@
         <v>172</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -9171,18 +9171,18 @@
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>177</v>
@@ -9191,12 +9191,12 @@
         <v>178</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>179</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="42" t="s">
         <v>181</v>
@@ -9220,19 +9220,19 @@
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="43"/>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>184</v>
@@ -11813,73 +11813,62 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -11900,31 +11889,31 @@
         <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2:B5" si="1">H2</f>
@@ -11935,11 +11924,11 @@
         <v>71.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" s="23">
         <v>24787.0</v>
@@ -11953,7 +11942,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="19" t="str">
         <f t="shared" si="1"/>
@@ -11965,7 +11954,7 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="23">
         <v>4479.0</v>
@@ -11979,7 +11968,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -11991,7 +11980,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="23">
         <v>2903.0</v>
@@ -12005,7 +11994,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="19" t="str">
         <f t="shared" si="1"/>
@@ -12017,7 +12006,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="23">
         <v>450.0</v>
@@ -12031,7 +12020,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>sum(H6:H14)</f>
@@ -12043,7 +12032,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" s="23">
         <v>273.0</v>
@@ -12066,7 +12055,7 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="23">
         <v>229.0</v>
@@ -12082,7 +12071,7 @@
       <c r="B8" s="27"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="23">
         <v>125.0</v>
@@ -12098,7 +12087,7 @@
       <c r="B9" s="27"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="23">
         <v>58.0</v>
@@ -12114,7 +12103,7 @@
       <c r="B10" s="27"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="23">
         <v>39.0</v>
@@ -12128,21 +12117,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="23">
         <v>28.0</v>
@@ -12156,18 +12145,18 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="21"/>
       <c r="G12" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="23">
         <v>25.0</v>
@@ -12181,18 +12170,18 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="23">
         <v>19.0</v>
@@ -12206,18 +12195,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="23">
         <v>1413.0</v>
@@ -12226,28 +12215,28 @@
         <v>4.0E-4</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16">
       <c r="B16" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="32"/>
     </row>
@@ -16263,19 +16252,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -16292,7 +16281,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>61</v>

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="185">
   <si>
     <t>key</t>
   </si>
@@ -61,7 +61,7 @@
     <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>We may see results in &lt;strong&gt;Hawaii&lt;/strong&gt; beginning at 11 p.m. ET, but the last polls close at 1 a.m.&amp;nbsp;ET.</t>
+    <t>Republicans in Guam and Democrats in the Northern Mariana Islands also vote today, but live results are not available.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
@@ -250,10 +250,13 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>Live Audio</t>
+    <t>Republican Results</t>
   </si>
   <si>
-    <t>Republican Results</t>
+    <t>Podcast</t>
+  </si>
+  <si>
+    <t>podcast</t>
   </si>
   <si>
     <t>Get Caught Up</t>
@@ -377,12 +380,6 @@
   </si>
   <si>
     <t>100.0</t>
-  </si>
-  <si>
-    <t>Podcast</t>
-  </si>
-  <si>
-    <t>podcast</t>
   </si>
   <si>
     <t>What Happened</t>
@@ -1020,50 +1017,50 @@
     </row>
     <row r="2">
       <c r="A2" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>152</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>154</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="39" t="s">
         <v>158</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8">
@@ -5060,26 +5057,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -9103,55 +9100,55 @@
         <v>57</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>167</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>169</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -9171,74 +9168,74 @@
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>178</v>
-      </c>
       <c r="D2" s="41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>180</v>
       </c>
       <c r="D3" s="43"/>
     </row>
     <row r="4">
       <c r="A4" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>181</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>182</v>
       </c>
       <c r="D4" s="43"/>
     </row>
     <row r="5">
       <c r="A5" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" s="43"/>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>184</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>185</v>
       </c>
       <c r="D6" s="43"/>
     </row>
@@ -11781,39 +11778,39 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -11889,31 +11886,31 @@
         <v>53</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2:B5" si="1">H2</f>
@@ -11924,11 +11921,11 @@
         <v>71.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H2" s="23">
         <v>24787.0</v>
@@ -11942,7 +11939,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="19" t="str">
         <f t="shared" si="1"/>
@@ -11954,7 +11951,7 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" s="23">
         <v>4479.0</v>
@@ -11968,7 +11965,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="19" t="str">
         <f t="shared" si="1"/>
@@ -11980,7 +11977,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="23">
         <v>2903.0</v>
@@ -11994,7 +11991,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="19" t="str">
         <f t="shared" si="1"/>
@@ -12006,7 +12003,7 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5" s="23">
         <v>450.0</v>
@@ -12020,7 +12017,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>sum(H6:H14)</f>
@@ -12032,7 +12029,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" s="23">
         <v>273.0</v>
@@ -12055,7 +12052,7 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" s="23">
         <v>229.0</v>
@@ -12071,7 +12068,7 @@
       <c r="B8" s="27"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="23">
         <v>125.0</v>
@@ -12087,7 +12084,7 @@
       <c r="B9" s="27"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="23">
         <v>58.0</v>
@@ -12103,7 +12100,7 @@
       <c r="B10" s="27"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" s="23">
         <v>39.0</v>
@@ -12117,21 +12114,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H11" s="23">
         <v>28.0</v>
@@ -12145,18 +12142,18 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="21"/>
       <c r="G12" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="23">
         <v>25.0</v>
@@ -12170,18 +12167,18 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="21"/>
       <c r="G13" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" s="23">
         <v>19.0</v>
@@ -12195,18 +12192,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="21"/>
       <c r="G14" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="23">
         <v>1413.0</v>
@@ -12215,28 +12212,28 @@
         <v>4.0E-4</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="30"/>
       <c r="H15" s="32"/>
     </row>
     <row r="16">
       <c r="B16" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="32"/>
     </row>
@@ -16252,25 +16249,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
@@ -16281,7 +16278,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>61</v>
@@ -16395,42 +16392,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>127</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -20431,21 +20428,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -20454,35 +20451,35 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -20505,7 +20502,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -20534,12 +20531,12 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -20549,12 +20546,12 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/copy.xlsx
+++ b/data/copy.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
   <si>
     <t>key</t>
   </si>
@@ -40,7 +40,7 @@
     <t>prod_state</t>
   </si>
   <si>
-    <t>after</t>
+    <t>during</t>
   </si>
   <si>
     <t>stage_state</t>
@@ -49,19 +49,16 @@
     <t>dev_state</t>
   </si>
   <si>
-    <t>during</t>
-  </si>
-  <si>
     <t>live_audio</t>
   </si>
   <si>
-    <t>live</t>
+    <t>inactive</t>
   </si>
   <si>
     <t>results_gop_footnote</t>
   </si>
   <si>
-    <t>Republicans in American Samoa also hold caucuses today.</t>
+    <t>Republicans in American Samoa also held caucuses today.</t>
   </si>
   <si>
     <t>results_dem_footnote</t>
@@ -70,7 +67,7 @@
     <t>delegates_dem_footnote</t>
   </si>
   <si>
-    <t>Democratic delegate totals include delegates determined via state primaries and caucuses and&amp;nbsp;&lt;a href="http://www.npr.org/2016/02/18/467230964/survey-clinton-maintains-massive-superdelegate-lead"&gt;superdelegates&lt;/a&gt;.</t>
+    <t>Democratic delegate totals include delegates determined via state primaries and caucuses and&amp;nbsp;&lt;a href="http://www.npr.org/2016/02/18/467230964/survey-clinton-maintains-massive-superdelegate-lead"&gt;superdelegates&lt;/a&gt;.&lt;br/&gt;&lt;br/&gt;After winners are called, state parties do not always immediately award all delegates (and AP does not always immediately account for all delegates in its estimates). Sometimes the delay is to allow for full tabulation of votes, or because there are further steps involved in the state party nomination process. See the &lt;a href="http://www.npr.org/2016/03/02/468641509/elections-2016-democratic-and-republican-delegate-tracker"&gt;NPR Delegate Tracker&lt;/a&gt; for detailed state delegate allocations, including delegates outstanding.</t>
   </si>
   <si>
     <t>delegates_gop_footnote</t>
@@ -89,6 +86,18 @@
   </si>
   <si>
     <t>&lt;p&gt;If you think so, we’d love your help. Public Radio is funded a few ways, but mostly from your donations to local public radio stations.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>wa_dem_note</t>
+  </si>
+  <si>
+    <t>Vote totals are an estimated number of delegates that will be sent to further rounds of caucuses that will formally select delegates to the national convention. In Washington, the state Democratic party did not report actual vote counts.</t>
+  </si>
+  <si>
+    <t>ak_dem_note</t>
+  </si>
+  <si>
+    <t>Vote totals are an estimated number of delegates that will be sent to the state convention to formally select delegates to the national convention. Vote counts are available from the &lt;a href="http://static1.squarespace.com/static/54bee0c9e4b0441ce96c4681/t/56f7547e27d4bdeb601fa43f/1459049599932/Alaska+2016+Democratic+Presidential+Caucus+Results+%281%29.pdf"&gt;Alaska Democratic party website&lt;/a&gt;.</t>
   </si>
   <si>
     <t>meta_description</t>
@@ -265,9 +274,6 @@
     <t>get_caught_up</t>
   </si>
   <si>
-    <t>Live audio</t>
-  </si>
-  <si>
     <t>error_headline</t>
   </si>
   <si>
@@ -388,22 +394,22 @@
     <t>states</t>
   </si>
   <si>
-    <t>Tuesday, March 22</t>
-  </si>
-  <si>
-    <t>Arizona, Idaho (D), Utah, American Samoa (R)</t>
-  </si>
-  <si>
-    <t>Saturday, March 26</t>
-  </si>
-  <si>
-    <t>Alaska (D), Hawaii (D), Washington (D)</t>
-  </si>
-  <si>
     <t>Tuesday, April 5</t>
   </si>
   <si>
     <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Saturday, April 9</t>
+  </si>
+  <si>
+    <t>Wyoming (D)</t>
+  </si>
+  <si>
+    <t>Tuesday, April 19</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
   <si>
     <t>Puerto Rico Republican&amp;nbsp;Primary</t>
@@ -920,68 +926,78 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations>
@@ -1009,34 +1025,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -4986,14 +5002,6 @@
     <row r="991">
       <c r="A991" s="21"/>
       <c r="B991" s="21"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="21"/>
-      <c r="B992" s="21"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="21"/>
-      <c r="B993" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5045,58 +5053,58 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5113,77 +5121,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="24"/>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="24"/>
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" s="24"/>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -5201,34 +5209,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="29" t="str">
         <f t="shared" ref="B2:B5" si="1">H2</f>
@@ -5239,11 +5247,11 @@
         <v>71.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="31"/>
       <c r="G2" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H2" s="33">
         <v>24787.0</v>
@@ -5257,7 +5265,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" s="29" t="str">
         <f t="shared" si="1"/>
@@ -5269,7 +5277,7 @@
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H3" s="33">
         <v>4479.0</v>
@@ -5283,7 +5291,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" s="29" t="str">
         <f t="shared" si="1"/>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H4" s="33">
         <v>2903.0</v>
@@ -5309,7 +5317,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" s="29" t="str">
         <f t="shared" si="1"/>
@@ -5321,7 +5329,7 @@
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H5" s="33">
         <v>450.0</v>
@@ -5335,7 +5343,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="35" t="str">
         <f>sum(H6:H14)</f>
@@ -5347,7 +5355,7 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H6" s="33">
         <v>273.0</v>
@@ -5370,7 +5378,7 @@
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H7" s="33">
         <v>229.0</v>
@@ -5386,7 +5394,7 @@
       <c r="B8" s="37"/>
       <c r="F8" s="31"/>
       <c r="G8" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H8" s="33">
         <v>125.0</v>
@@ -5402,7 +5410,7 @@
       <c r="B9" s="37"/>
       <c r="F9" s="31"/>
       <c r="G9" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H9" s="33">
         <v>58.0</v>
@@ -5418,7 +5426,7 @@
       <c r="B10" s="37"/>
       <c r="F10" s="31"/>
       <c r="G10" s="32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H10" s="33">
         <v>39.0</v>
@@ -5432,21 +5440,21 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="31"/>
       <c r="G11" s="32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="33">
         <v>28.0</v>
@@ -5460,18 +5468,18 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H12" s="33">
         <v>25.0</v>
@@ -5485,18 +5493,18 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="31"/>
       <c r="G13" s="32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="33">
         <v>19.0</v>
@@ -5510,18 +5518,18 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H14" s="33">
         <v>1413.0</v>
@@ -5530,28 +5538,28 @@
         <v>4.0E-4</v>
       </c>
       <c r="J14" s="32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E15" s="40"/>
       <c r="H15" s="42"/>
     </row>
     <row r="16">
       <c r="B16" s="43" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H16" s="42"/>
     </row>
@@ -9548,10 +9556,10 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -9574,10 +9582,10 @@
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -9600,10 +9608,10 @@
     </row>
     <row r="4" ht="30.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -9626,10 +9634,10 @@
     </row>
     <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -9652,10 +9660,10 @@
     </row>
     <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -9678,7 +9686,7 @@
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -9704,10 +9712,10 @@
     </row>
     <row r="8" ht="30.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -9730,10 +9738,10 @@
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9756,10 +9764,10 @@
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -9782,10 +9790,10 @@
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -9808,7 +9816,7 @@
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9832,7 +9840,7 @@
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -9856,7 +9864,7 @@
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -9880,7 +9888,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -9904,7 +9912,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -9928,7 +9936,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -9952,10 +9960,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -9978,10 +9986,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -10004,10 +10012,10 @@
     </row>
     <row r="20" ht="30.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -10030,10 +10038,10 @@
     </row>
     <row r="21" ht="30.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -11904,13 +11912,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -11938,106 +11946,106 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12058,117 +12066,86 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12188,108 +12165,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -12342,42 +12317,42 @@
     </row>
     <row r="2" ht="33.0" customHeight="1">
       <c r="A2" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="33.0" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="33.0" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="33.0" customHeight="1">
@@ -16378,58 +16353,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -16452,7 +16427,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -16481,27 +16456,27 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -16530,50 +16505,50 @@
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
